--- a/Employee Resignation Analysis Dataset.xlsx
+++ b/Employee Resignation Analysis Dataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Emp ID</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Need to Predict resignation possibility</t>
+  </si>
+  <si>
+    <t>Total No. of Leaves in last 6 months</t>
+  </si>
+  <si>
+    <t>Avg. Time spent in Working in Hrs.</t>
   </si>
 </sst>
 </file>
@@ -447,23 +453,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,19 +495,25 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,20 +538,26 @@
       <c r="H2">
         <v>100000</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="I2">
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -564,20 +582,26 @@
       <c r="H3">
         <v>80000</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>8.5</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -602,20 +626,26 @@
       <c r="H4">
         <v>40000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -640,20 +670,26 @@
       <c r="H5">
         <v>50000</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
+      <c r="I5">
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -678,20 +714,26 @@
       <c r="H6">
         <v>60000</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
+      <c r="I6">
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -716,20 +758,26 @@
       <c r="H7">
         <v>40000</v>
       </c>
-      <c r="I7" t="s">
-        <v>26</v>
+      <c r="I7">
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>8.25</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -754,20 +802,26 @@
       <c r="H8">
         <v>65000</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
+      <c r="I8">
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -792,16 +846,22 @@
       <c r="H9">
         <v>85000</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
+      <c r="I9">
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
